--- a/Archivos_GDrive/Auditoría_03-03-2024_DORADO.xlsx
+++ b/Archivos_GDrive/Auditoría_03-03-2024_DORADO.xlsx
@@ -2666,7 +2666,7 @@
         <v>1063649267</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>18399</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="70">
